--- a/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y164"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -606,7 +606,11 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -619,16 +623,16 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -683,7 +687,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -741,12 +745,12 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -791,7 +795,11 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -804,16 +812,16 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -876,7 +884,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -942,12 +950,12 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1001,12 +1009,12 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1069,7 +1077,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1131,12 +1139,12 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,7 +1199,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1258,7 +1266,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1321,7 +1329,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1384,7 +1392,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1443,7 +1451,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1498,7 +1506,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1553,7 +1561,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1608,7 +1616,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1663,7 +1671,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1718,7 +1726,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1773,7 +1781,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1828,7 +1836,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1883,7 +1891,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1946,7 +1954,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2009,7 +2017,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2072,7 +2080,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2135,7 +2143,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2198,7 +2206,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2261,7 +2269,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2328,7 +2336,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2391,7 +2399,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2454,7 +2462,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2517,7 +2525,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2580,7 +2588,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2647,7 +2655,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2714,7 +2722,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2785,7 +2793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2848,7 +2856,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2915,7 +2923,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2978,7 +2986,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3048,12 +3056,12 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3119,12 +3127,12 @@
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3187,7 +3195,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3261,12 +3269,12 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3340,12 +3348,12 @@
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3419,12 +3427,12 @@
         </is>
       </c>
       <c r="Y46" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3498,12 +3506,12 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3577,12 +3585,12 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3645,7 +3653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3708,7 +3716,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3771,7 +3779,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3837,12 +3845,12 @@
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3905,7 +3913,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3968,7 +3976,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4035,7 +4043,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4098,7 +4106,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4156,12 +4164,12 @@
         </is>
       </c>
       <c r="Y57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4219,12 +4227,12 @@
         </is>
       </c>
       <c r="Y58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4291,7 +4299,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4357,12 +4365,12 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4428,12 +4436,12 @@
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4499,12 +4507,12 @@
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4566,12 +4574,12 @@
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4629,12 +4637,12 @@
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4696,12 +4704,12 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4767,12 +4775,12 @@
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4838,12 +4846,12 @@
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4905,12 +4913,12 @@
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4972,12 +4980,12 @@
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5039,12 +5047,12 @@
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5106,12 +5114,12 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5173,12 +5181,12 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5240,12 +5248,12 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5307,12 +5315,12 @@
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5374,12 +5382,12 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5445,12 +5453,12 @@
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5516,12 +5524,12 @@
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5587,12 +5595,12 @@
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5658,12 +5666,12 @@
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5729,12 +5737,12 @@
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5800,12 +5808,12 @@
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5867,12 +5875,12 @@
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5934,12 +5942,12 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6001,12 +6009,12 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6068,12 +6076,12 @@
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6135,12 +6143,12 @@
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6202,12 +6210,12 @@
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6269,12 +6277,12 @@
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6329,7 +6337,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6387,12 +6395,12 @@
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6454,12 +6462,12 @@
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6521,12 +6529,12 @@
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6588,12 +6596,12 @@
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6655,12 +6663,12 @@
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6722,12 +6730,12 @@
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6785,12 +6793,12 @@
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6849,25 +6857,21 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What is the density surface of crape myrtles in Oleander</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>done</t>
@@ -6875,15 +6879,19 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -6899,25 +6907,25 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -6967,21 +6975,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -7022,25 +7034,21 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>done</t>
@@ -7081,23 +7089,23 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7140,11 +7148,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7156,7 +7164,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7199,21 +7207,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>done</t>
@@ -7254,16 +7266,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -7309,16 +7321,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -7364,23 +7376,19 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
@@ -7423,24 +7431,24 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
@@ -7449,15 +7457,19 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7473,34 +7485,30 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>the US</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>done</t>
@@ -7508,11 +7516,19 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -7528,25 +7544,25 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -7559,11 +7575,19 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -7579,25 +7603,25 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -7610,7 +7634,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7618,7 +7642,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -7634,33 +7662,33 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>the Western USA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
@@ -7669,12 +7697,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -7693,28 +7721,32 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
@@ -7757,21 +7789,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>done</t>
@@ -7782,11 +7818,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -7803,25 +7835,25 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -7837,16 +7869,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -7862,25 +7886,25 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -7893,19 +7917,15 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -7921,29 +7941,33 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
@@ -7952,19 +7976,15 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -7980,20 +8000,20 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -8002,11 +8022,7 @@
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
@@ -8015,20 +8031,24 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
@@ -8043,29 +8063,33 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the mean center of crimes in Amsterdam in 2019</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
@@ -8074,20 +8098,24 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
@@ -8102,32 +8130,28 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
@@ -8137,24 +8161,16 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -8169,32 +8185,28 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander city</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
@@ -8204,24 +8216,16 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
@@ -8236,32 +8240,28 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8281,14 +8281,10 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -8303,32 +8299,28 @@
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
@@ -8338,7 +8330,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8348,14 +8340,10 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
@@ -8370,32 +8358,28 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
@@ -8405,7 +8389,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8415,14 +8399,10 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
@@ -8437,33 +8417,33 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
@@ -8472,7 +8452,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8482,14 +8462,10 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -8504,33 +8480,29 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
@@ -8539,7 +8511,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8549,14 +8521,10 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
@@ -8571,28 +8539,32 @@
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
@@ -8602,12 +8574,24 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
@@ -8622,34 +8606,34 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>What is the point density of trees in parks in Oleander</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>natural=tree</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>done</t>
@@ -8657,12 +8641,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,34 +8673,34 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>What is the population density in California</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>done</t>
@@ -8724,12 +8708,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8756,34 +8740,34 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>done</t>
@@ -8791,17 +8775,17 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8823,34 +8807,34 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>shop=alcohol, leisure=park</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
           <t>done</t>
@@ -8858,17 +8842,17 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8890,34 +8874,34 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
           <t>done</t>
@@ -8925,17 +8909,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8957,34 +8941,30 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the number of arson cases in Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
           <t>done</t>
@@ -8992,24 +8972,16 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -9024,34 +8996,30 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
           <t>done</t>
@@ -9062,11 +9030,31 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -9079,34 +9067,34 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the number of crime cases for each police district in Texas in 2018</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>done</t>
@@ -9114,20 +9102,24 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -9142,38 +9134,30 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
           <t>done</t>
@@ -9186,7 +9170,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,25 +9193,25 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -9240,20 +9224,24 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -9264,40 +9252,32 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>어디선 polygon, 어디선 linestring</t>
-        </is>
-      </c>
+      <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>What is the number of election votes for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
@@ -9315,8 +9295,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
@@ -9331,34 +9319,30 @@
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the number of high school students for each senior high school district in Oleander</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
           <t>done</t>
@@ -9366,20 +9350,24 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
@@ -9394,34 +9382,34 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>done</t>
@@ -9429,20 +9417,24 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
@@ -9453,33 +9445,29 @@
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
-        </is>
-      </c>
+      <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the number of households for each precinct in Dallas County</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Dallas County</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -9492,20 +9480,24 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
@@ -9520,38 +9512,34 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
+          <t>Banten province</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>done</t>
@@ -9559,20 +9547,24 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -9587,11 +9579,11 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
@@ -9600,21 +9592,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>done</t>
@@ -9622,20 +9614,24 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -9650,11 +9646,11 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
@@ -9663,7 +9659,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9673,11 +9669,7 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
           <t>done</t>
@@ -9688,16 +9680,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
@@ -9713,34 +9697,34 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y144" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>the Metro Vancouver region</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
           <t>done</t>
@@ -9748,20 +9732,24 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -9776,34 +9764,30 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What is the point density of fire calls in Oleander</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
           <t>done</t>
@@ -9811,20 +9795,24 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -9839,32 +9827,32 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What is the point density of trees in parks in Oleander</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t>natural=tree</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -9874,16 +9862,24 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
           <t>data editing</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -9898,32 +9894,32 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y147" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What is the population density in California</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9938,12 +9934,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9951,11 +9947,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -9969,32 +9961,36 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y148" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What is the population for each city in Aichi prefecture in Japan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>Aichi prefecture</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japan</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10007,36 +10003,12 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
@@ -10048,34 +10020,30 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y149" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
           <t>done</t>
@@ -10083,10 +10051,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
@@ -10103,34 +10075,34 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>April 2011</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
           <t>done</t>
@@ -10138,19 +10110,15 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10166,32 +10134,32 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>What is the total area of agriculture in Netherlands</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>agriculture=*, landuse=argiculture</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -10211,10 +10179,14 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
@@ -10229,32 +10201,36 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y152" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What is the total population for each census block in Tarrant County, Texas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10264,34 +10240,18 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -10304,34 +10264,30 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Poway</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
           <t>done</t>
@@ -10364,7 +10320,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
@@ -10383,28 +10339,28 @@
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10419,12 +10375,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10432,16 +10388,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -10454,32 +10402,32 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10494,12 +10442,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -10507,16 +10455,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -10529,32 +10469,32 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10567,9 +10507,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
@@ -10584,32 +10536,32 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10655,28 +10607,28 @@
         </is>
       </c>
       <c r="Y158" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10715,23 +10667,23 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10746,7 +10698,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,32 +10721,36 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y160" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10809,7 +10765,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10832,34 +10788,30 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y161" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
           <t>done</t>
@@ -10872,7 +10824,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10891,38 +10843,42 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>어디선 polygon, 어디선 linestring</t>
+        </is>
+      </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>done</t>
@@ -10930,19 +10886,15 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
@@ -10958,32 +10910,32 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10998,7 +10950,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11021,10 +10973,1637 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y164" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Where are the fire stations in Utrecht</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y165" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y166" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>cuisine=latin_american</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y167" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Where are the industrial areas in Utrecht</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>landuse=industrial</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y168" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y169" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>nature : bare_rock</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y170" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y171" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Which houses are for sale in Utrecht</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y173" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y174" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Which land use contains meteorological stations in Netherlands</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="Y164" t="n">
+      <c r="Y185" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y188" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
         <v>13</v>
       </c>
     </row>

--- a/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y189"/>
+  <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,27 +2986,23 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3021,24 +3017,16 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3052,20 +3040,20 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3075,11 +3063,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>shop=florist</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>done</t>
@@ -3097,21 +3081,29 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -3119,24 +3111,28 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3146,11 +3142,7 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>leisure=playground</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>done</t>
@@ -3163,18 +3155,34 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3182,24 +3190,28 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3274,11 +3286,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3353,11 +3365,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3432,21 +3444,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>aeroway=runway</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>done</t>
@@ -3459,34 +3475,18 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3494,38 +3494,38 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>landuse=religious</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>done</t>
@@ -3538,34 +3538,18 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3573,40 +3557,36 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3653,23 +3633,23 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3716,23 +3696,23 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3779,23 +3759,23 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>shop=*</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3810,24 +3790,16 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3837,36 +3809,40 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Shop이 너무나 많다</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3913,11 +3889,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3927,11 +3903,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>done</t>
@@ -3939,20 +3911,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3967,20 +3943,20 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3990,11 +3966,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>shop=*</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>done</t>
@@ -4002,20 +3974,24 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -4026,40 +4002,40 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Shop이 너무나 많다</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4106,19 +4082,23 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
@@ -4156,7 +4136,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
@@ -4169,19 +4153,23 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
@@ -4219,7 +4207,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
@@ -4232,11 +4224,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4250,11 +4242,7 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4262,20 +4250,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -4286,38 +4278,42 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4325,25 +4321,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4353,42 +4353,38 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4396,25 +4392,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4424,40 +4424,32 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
@@ -4467,25 +4459,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4495,33 +4491,29 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4534,7 +4526,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4570,25 +4562,25 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What areas do have population density less than 300 per square kilometer in UK</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4601,25 +4593,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4633,25 +4629,25 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4664,7 +4660,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4700,34 +4696,30 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4780,23 +4772,23 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4806,29 +4798,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -4842,30 +4830,34 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4873,27 +4865,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -4909,30 +4901,34 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4940,27 +4936,27 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -4976,30 +4972,34 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>done</t>
@@ -5007,27 +5007,27 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -5043,30 +5043,34 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>done</t>
@@ -5074,27 +5078,27 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -5110,30 +5114,34 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>done</t>
@@ -5141,27 +5149,27 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -5177,30 +5185,34 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>done</t>
@@ -5208,27 +5220,27 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -5244,30 +5256,34 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5275,29 +5291,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5311,20 +5323,20 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5336,7 +5348,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5351,19 +5363,15 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -5374,24 +5382,28 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5403,7 +5415,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5413,29 +5425,21 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5445,24 +5449,28 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5474,7 +5482,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5484,29 +5492,21 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5516,24 +5516,28 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5545,7 +5549,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5555,29 +5559,21 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5587,24 +5583,28 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5616,7 +5616,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5626,29 +5626,21 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5658,24 +5650,28 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5687,7 +5683,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5697,29 +5693,21 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5729,38 +5717,38 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5768,7 +5756,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5776,21 +5764,9 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5804,34 +5780,30 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>done</t>
@@ -5839,17 +5811,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5871,32 +5843,32 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5911,12 +5883,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -5929,41 +5901,41 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5978,12 +5950,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5996,41 +5968,41 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6045,12 +6017,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -6063,41 +6035,41 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6112,12 +6084,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -6130,41 +6102,41 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6179,12 +6151,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -6197,41 +6169,41 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6246,12 +6218,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -6265,37 +6237,37 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
@@ -6337,16 +6309,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What is the density surface of crape myrtles in Oleander</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -6364,19 +6336,15 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -6391,32 +6359,32 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6431,14 +6399,10 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -6449,41 +6413,37 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6498,14 +6458,10 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -6516,43 +6472,35 @@
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6565,14 +6513,10 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -6583,29 +6527,25 @@
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6617,7 +6557,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6632,14 +6572,10 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -6650,41 +6586,37 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6699,14 +6631,10 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -6717,41 +6645,37 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6766,14 +6690,10 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -6789,33 +6709,29 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
@@ -6824,12 +6740,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6848,25 +6764,25 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>What is the density surface of crape myrtles in Oleander</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -6879,19 +6795,15 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -6907,34 +6819,30 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>done</t>
@@ -6975,25 +6883,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -7001,15 +6909,19 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -7025,25 +6937,25 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the US</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -7056,15 +6968,19 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -7080,34 +6996,30 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>done</t>
@@ -7115,15 +7027,19 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -7139,34 +7055,30 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>landuse=recreation_ground</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>done</t>
@@ -7174,15 +7086,19 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -7198,34 +7114,34 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>done</t>
@@ -7266,19 +7182,23 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
@@ -7321,21 +7241,25 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>done</t>
@@ -7346,11 +7270,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -7367,25 +7287,25 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -7401,11 +7321,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -7422,33 +7338,29 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
@@ -7457,7 +7369,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7465,11 +7377,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7485,29 +7393,33 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>the US</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
@@ -7516,7 +7428,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7524,11 +7436,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -7544,25 +7452,25 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -7575,19 +7483,15 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -7603,25 +7507,25 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -7634,19 +7538,15 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -7662,32 +7562,28 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
@@ -7702,10 +7598,14 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -7721,32 +7621,28 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
@@ -7761,10 +7657,14 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -7780,34 +7680,30 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
           <t>done</t>
@@ -7818,8 +7714,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -7835,29 +7739,33 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
@@ -7869,8 +7777,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -7886,25 +7802,25 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -7917,15 +7833,19 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -7941,33 +7861,33 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>the Western USA</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
@@ -7981,11 +7901,19 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -8000,28 +7928,32 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
@@ -8031,22 +7963,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
@@ -8063,33 +7995,33 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes in Amsterdam in 2019</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
@@ -8098,22 +8030,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
@@ -8130,28 +8062,32 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
@@ -8161,16 +8097,24 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -8185,28 +8129,32 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Oleander city</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
@@ -8216,16 +8164,24 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
@@ -8240,28 +8196,32 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
@@ -8271,7 +8231,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8281,10 +8241,14 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -8299,25 +8263,25 @@
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the number of arson cases in Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -8330,19 +8294,15 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -8358,20 +8318,20 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8394,17 +8354,29 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -8417,31 +8389,31 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the number of crime cases for each police district in Texas in 2018</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -8452,20 +8424,24 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -8480,25 +8456,25 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -8521,7 +8497,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -8539,32 +8515,28 @@
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
@@ -8579,12 +8551,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8606,32 +8578,28 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the number of election votes for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
@@ -8646,12 +8614,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -8673,32 +8641,28 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What is the number of high school students for each senior high school district in Oleander</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
@@ -8713,12 +8677,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8740,20 +8704,20 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8763,7 +8727,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -8780,12 +8744,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8807,32 +8771,28 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the number of households for each precinct in Dallas County</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Dallas County</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
@@ -8847,12 +8807,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8874,30 +8834,30 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
+          <t>Banten province</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -8914,12 +8874,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8941,29 +8901,33 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>What is the number of arson cases in Fort Worth on February 2004</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fort Worth on February 2004</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
@@ -8977,11 +8941,19 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -8996,25 +8968,25 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -9030,31 +9002,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -9067,34 +9019,38 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>What is the number of crime cases for each police district in Texas in 2018</t>
+          <t>What is the population for each city in Aichi prefecture in Japan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>Aichi prefecture</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japan</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>done</t>
@@ -9102,24 +9058,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -9134,25 +9078,25 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
+          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -9165,19 +9109,15 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -9193,29 +9133,33 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>April 2011</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
@@ -9232,16 +9176,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -9256,30 +9192,38 @@
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>What is the number of election votes for each precinct in Dallas</t>
+          <t>What is the total population for each census block in Tarrant County, Texas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
         <is>
           <t>done</t>
@@ -9295,16 +9239,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
@@ -9319,25 +9255,25 @@
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>What is the number of high school students for each senior high school district in Oleander</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Poway</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -9350,26 +9286,34 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -9382,34 +9326,34 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>done</t>
@@ -9417,12 +9361,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9449,30 +9393,34 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>What is the number of households for each precinct in Dallas County</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Dallas County</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>shop=alcohol, leisure=park</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>done</t>
@@ -9480,12 +9428,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9512,34 +9460,34 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Banten province</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>done</t>
@@ -9547,12 +9495,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9579,34 +9527,34 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr">
         <is>
           <t>done</t>
@@ -9614,17 +9562,17 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>data editing</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -9646,20 +9594,20 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9669,7 +9617,11 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Tag:landuse=forestry</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr">
         <is>
           <t>done</t>
@@ -9706,25 +9658,25 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>the Metro Vancouver region</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr">
         <is>
           <t>done</t>
@@ -9732,24 +9684,20 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -9764,30 +9712,38 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>What is the point density of fire calls in Oleander</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>done</t>
@@ -9795,24 +9751,20 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -9827,34 +9779,30 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>What is the point density of trees in parks in Oleander</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>natural=tree</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
           <t>done</t>
@@ -9867,19 +9815,15 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -9890,38 +9834,42 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>어디선 polygon, 어디선 linestring</t>
+        </is>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y147" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>What is the population density in California</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
           <t>done</t>
@@ -9929,24 +9877,16 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
@@ -9961,36 +9901,32 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y148" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>What is the population for each city in Aichi prefecture in Japan</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Aichi prefecture</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10003,8 +9939,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -10020,30 +9964,34 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y149" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>done</t>
@@ -10051,15 +9999,19 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10071,37 +10023,37 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
+        </is>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>What is the tornado path in Oleander in April 2011</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>April 2011</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
@@ -10110,15 +10062,19 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10134,32 +10090,36 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>What is the total area of agriculture in Netherlands</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>agriculture=*, landuse=argiculture</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -10179,14 +10139,10 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
@@ -10201,36 +10157,32 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y152" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>What is the total population for each census block in Tarrant County, Texas</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10240,15 +10192,19 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -10264,30 +10220,34 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Poway</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr">
         <is>
           <t>done</t>
@@ -10300,29 +10260,17 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -10335,32 +10283,32 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=library</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10375,19 +10323,15 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
@@ -10402,32 +10346,32 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10442,19 +10386,15 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
@@ -10469,32 +10409,32 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>building=house</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10504,24 +10444,16 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
@@ -10536,32 +10468,32 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10576,22 +10508,34 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -10603,32 +10547,32 @@
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y158" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Tag:landuse=forestry</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10667,23 +10611,23 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>Which land use contains meteorological stations in Netherlands</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10698,7 +10642,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10721,36 +10665,32 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y160" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10797,21 +10737,25 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
           <t>done</t>
@@ -10824,17 +10768,29 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -10843,42 +10799,38 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>어디선 polygon, 어디선 linestring</t>
-        </is>
-      </c>
+      <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y162" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>done</t>
@@ -10886,18 +10838,34 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -10910,32 +10878,32 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>landuse=commercial</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10950,17 +10918,29 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
@@ -10973,32 +10953,32 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y164" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -11013,17 +10993,29 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -11032,38 +11024,38 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
-        </is>
-      </c>
+      <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y165" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr">
         <is>
           <t>done</t>
@@ -11074,16 +11066,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -11099,36 +11083,32 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y166" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>abandoned:*=*, highway=motorway</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -11143,15 +11123,19 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
@@ -11166,32 +11150,32 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y167" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -11204,16 +11188,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -11229,32 +11205,32 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y168" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11269,7 +11245,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11292,32 +11268,32 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y169" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>nature : bare_rock</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11332,7 +11308,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11355,32 +11331,32 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y170" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>site=piste</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11395,7 +11371,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11418,32 +11394,32 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y171" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11453,15 +11429,19 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -11477,32 +11457,32 @@
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y172" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -11517,24 +11497,16 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -11548,1062 +11520,10 @@
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y173" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="Y174" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="Y175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y176" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Which park is biggest in Utrecht</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Y177" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y178" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y179" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y180" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y181" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>opening_hours=*</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="Y182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Hillsboro</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>abandoned:*=*, highway=motorway</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y183" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>the Happy Valley</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>information=visitor_centre</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="Y184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y185" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y186" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y187" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y188" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="Y189" t="n">
         <v>13</v>
       </c>
     </row>

--- a/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped_wo_paraph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y173"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,23 +2986,27 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3017,16 +3021,24 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3040,20 +3052,20 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3063,7 +3075,11 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>shop=florist</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>done</t>
@@ -3081,29 +3097,21 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -3111,28 +3119,24 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3142,7 +3146,11 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>leisure=playground</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>done</t>
@@ -3155,34 +3163,18 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3190,28 +3182,24 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3286,11 +3274,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3365,11 +3353,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3444,25 +3432,21 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>done</t>
@@ -3475,18 +3459,34 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3494,38 +3494,38 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>landuse=religious</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>done</t>
@@ -3538,18 +3538,34 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3557,36 +3573,40 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3633,23 +3653,23 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3696,23 +3716,23 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3759,23 +3779,23 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t xml:space="preserve"> aeroway=*</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3790,16 +3810,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3809,40 +3837,36 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Shop이 너무나 많다</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3889,11 +3913,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3903,7 +3927,11 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>done</t>
@@ -3911,24 +3939,20 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3943,20 +3967,20 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3966,7 +3990,11 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>shop=*</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>done</t>
@@ -3974,24 +4002,20 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -4002,40 +4026,40 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Shop이 너무나 많다</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4082,23 +4106,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
+          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
@@ -4136,11 +4156,7 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
@@ -4153,23 +4169,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
@@ -4207,11 +4219,7 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
@@ -4224,11 +4232,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4242,7 +4250,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4250,24 +4262,20 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -4278,42 +4286,38 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4321,29 +4325,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4353,38 +4353,42 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4392,29 +4396,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4424,32 +4424,40 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
@@ -4459,29 +4467,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4491,29 +4495,33 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4526,7 +4534,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4562,25 +4570,25 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4593,29 +4601,25 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4629,25 +4633,25 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4660,7 +4664,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4696,30 +4700,34 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4772,23 +4780,23 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>monitoring:weather=yes</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4798,25 +4806,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -4830,34 +4842,30 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4865,27 +4873,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -4901,34 +4909,30 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4936,27 +4940,27 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -4972,34 +4976,30 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>done</t>
@@ -5007,27 +5007,27 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -5043,34 +5043,30 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>done</t>
@@ -5078,27 +5074,27 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -5114,34 +5110,30 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>done</t>
@@ -5149,27 +5141,27 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -5185,34 +5177,30 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>done</t>
@@ -5220,27 +5208,27 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -5256,34 +5244,30 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5291,25 +5275,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5323,20 +5311,20 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5348,7 +5336,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5363,15 +5351,19 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -5382,28 +5374,24 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5415,7 +5403,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5425,21 +5413,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5449,28 +5445,24 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5482,7 +5474,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5492,21 +5484,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5516,28 +5516,24 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5549,7 +5545,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5559,21 +5555,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5583,28 +5587,24 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5616,7 +5616,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5626,21 +5626,29 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5650,28 +5658,24 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5683,7 +5687,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5693,21 +5697,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5717,38 +5729,38 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5756,7 +5768,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5764,9 +5776,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5780,30 +5804,34 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>done</t>
@@ -5811,17 +5839,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Data editing</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5843,32 +5871,32 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5883,12 +5911,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -5901,41 +5929,41 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5950,12 +5978,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5968,41 +5996,41 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6017,12 +6045,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -6035,41 +6063,41 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6084,12 +6112,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -6102,41 +6130,41 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6151,12 +6179,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -6169,41 +6197,41 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6218,12 +6246,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -6237,37 +6265,37 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
@@ -6309,16 +6337,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What is the density surface of crape myrtles in Oleander</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -6336,15 +6364,19 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -6359,32 +6391,32 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6399,10 +6431,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -6413,37 +6449,41 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6458,10 +6498,14 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -6472,35 +6516,43 @@
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6513,10 +6565,14 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -6527,25 +6583,29 @@
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6557,7 +6617,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6572,10 +6632,14 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -6586,37 +6650,41 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6631,10 +6699,14 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -6645,37 +6717,41 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6690,10 +6766,14 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -6709,29 +6789,33 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
@@ -6740,12 +6824,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6764,25 +6848,25 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the density surface of crape myrtles in Oleander</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -6795,15 +6879,19 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -6819,30 +6907,34 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>done</t>
@@ -6883,25 +6975,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -6909,19 +7001,15 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -6937,25 +7025,25 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>the US</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -6968,19 +7056,15 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -6996,30 +7080,34 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>done</t>
@@ -7027,19 +7115,15 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -7055,30 +7139,34 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>done</t>
@@ -7086,19 +7174,15 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -7114,34 +7198,34 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>done</t>
@@ -7182,23 +7266,19 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
@@ -7241,25 +7321,21 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>done</t>
@@ -7270,7 +7346,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -7287,25 +7367,25 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -7321,7 +7401,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -7338,29 +7422,33 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
@@ -7369,7 +7457,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7377,7 +7465,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7393,33 +7485,29 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>the US</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
@@ -7428,7 +7516,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7436,7 +7524,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -7452,25 +7544,25 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -7483,15 +7575,19 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -7507,25 +7603,25 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -7538,15 +7634,19 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -7562,28 +7662,32 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
@@ -7598,14 +7702,10 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -7621,28 +7721,32 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
@@ -7657,14 +7761,10 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -7680,30 +7780,34 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>done</t>
@@ -7714,16 +7818,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -7739,33 +7835,29 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
@@ -7777,16 +7869,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -7802,25 +7886,25 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -7833,19 +7917,15 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -7861,33 +7941,33 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>the Western USA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
@@ -7901,19 +7981,11 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -7928,32 +8000,28 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
@@ -7963,22 +8031,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
@@ -7995,33 +8063,33 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of crimes in Amsterdam in 2019</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
@@ -8030,22 +8098,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
@@ -8062,32 +8130,28 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
@@ -8097,24 +8161,16 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -8129,32 +8185,28 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander city</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
@@ -8164,24 +8216,16 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
@@ -8196,32 +8240,28 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
@@ -8231,7 +8271,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8241,14 +8281,10 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -8263,25 +8299,25 @@
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>What is the number of arson cases in Fort Worth on February 2004</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Fort Worth on February 2004</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -8294,15 +8330,19 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -8318,20 +8358,20 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8354,29 +8394,17 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -8389,31 +8417,31 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>What is the number of crime cases for each police district in Texas in 2018</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -8424,24 +8452,20 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -8456,25 +8480,25 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -8497,7 +8521,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -8515,28 +8539,32 @@
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
@@ -8551,12 +8579,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8578,28 +8606,32 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>What is the number of election votes for each precinct in Dallas</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
@@ -8614,12 +8646,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -8641,28 +8673,32 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>What is the number of high school students for each senior high school district in Oleander</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
@@ -8677,12 +8713,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8704,20 +8740,20 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8727,7 +8763,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t xml:space="preserve"> Texas</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -8744,12 +8780,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8771,28 +8807,32 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>What is the number of households for each precinct in Dallas County</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dallas County</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
@@ -8807,12 +8847,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8834,30 +8874,30 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Banten province</t>
+          <t>Tarrant County</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t xml:space="preserve"> Texas</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -8874,12 +8914,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8901,33 +8941,29 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What is the number of arson cases in Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
@@ -8941,19 +8977,11 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -8968,25 +8996,25 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -9002,11 +9030,31 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -9019,38 +9067,34 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>What is the population for each city in Aichi prefecture in Japan</t>
+          <t>What is the number of crime cases for each police district in Texas in 2018</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Aichi prefecture</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>done</t>
@@ -9058,12 +9102,24 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -9078,25 +9134,25 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
+          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -9109,15 +9165,19 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -9133,33 +9193,29 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>What is the tornado path in Oleander in April 2011</t>
+          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>April 2011</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
@@ -9176,8 +9232,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -9192,38 +9256,30 @@
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>What is the total population for each census block in Tarrant County, Texas</t>
+          <t>What is the number of election votes for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
           <t>done</t>
@@ -9239,8 +9295,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
@@ -9255,25 +9319,25 @@
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>What is the number of high school students for each senior high school district in Oleander</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Poway</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -9286,17 +9350,17 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -9304,16 +9368,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -9326,34 +9382,34 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>done</t>
@@ -9361,12 +9417,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9393,34 +9449,30 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the number of households for each precinct in Dallas County</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Dallas County</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>shop=alcohol, leisure=park</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
           <t>done</t>
@@ -9428,12 +9480,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9460,34 +9512,34 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>Banten province</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>done</t>
@@ -9495,12 +9547,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9527,34 +9579,34 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>done</t>
@@ -9562,17 +9614,17 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -9594,20 +9646,20 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9617,11 +9669,7 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
           <t>done</t>
@@ -9658,25 +9706,25 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>the Metro Vancouver region</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
           <t>done</t>
@@ -9684,20 +9732,24 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -9712,38 +9764,30 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>What is the point density of fire calls in Oleander</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
           <t>done</t>
@@ -9751,20 +9795,24 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -9779,30 +9827,34 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>What is the point density of trees in parks in Oleander</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>natural=tree</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>done</t>
@@ -9815,15 +9867,19 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -9834,42 +9890,38 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>어디선 polygon, 어디선 linestring</t>
-        </is>
-      </c>
+      <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y147" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>What is the population density in California</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>done</t>
@@ -9877,16 +9929,24 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
           <t>data editing</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
@@ -9901,32 +9961,36 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y148" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the population for each city in Aichi prefecture in Japan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>Aichi prefecture</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japan</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>landuse=commercial</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9939,16 +10003,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -9964,34 +10020,30 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y149" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
           <t>done</t>
@@ -9999,19 +10051,15 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10023,37 +10071,37 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
-        </is>
-      </c>
+      <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>April 2011</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
@@ -10062,19 +10110,15 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10090,36 +10134,32 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>What is the total area of agriculture in Netherlands</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>agriculture=*, landuse=argiculture</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -10139,10 +10179,14 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
@@ -10157,32 +10201,36 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y152" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What is the total population for each census block in Tarrant County, Texas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10192,19 +10240,15 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -10220,34 +10264,30 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Poway</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
           <t>done</t>
@@ -10260,17 +10300,29 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -10283,32 +10335,32 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>nature : bare_rock</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10323,15 +10375,19 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
@@ -10346,32 +10402,32 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>site=piste</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10386,15 +10442,19 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
@@ -10409,32 +10469,32 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10444,16 +10504,24 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
@@ -10468,32 +10536,32 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10508,34 +10576,22 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -10547,32 +10603,32 @@
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y158" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>year_of_construction=*</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10611,23 +10667,23 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10642,7 +10698,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10665,32 +10721,36 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y160" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10737,25 +10797,21 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
           <t>done</t>
@@ -10768,29 +10824,17 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -10799,38 +10843,42 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>어디선 polygon, 어디선 linestring</t>
+        </is>
+      </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y162" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>done</t>
@@ -10838,34 +10886,18 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -10878,32 +10910,32 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10918,29 +10950,17 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
@@ -10953,32 +10973,32 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y164" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -10993,29 +11013,17 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -11024,38 +11032,38 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
+        </is>
+      </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y165" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>opening_hours=*</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
           <t>done</t>
@@ -11066,8 +11074,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -11083,32 +11099,36 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y166" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -11123,19 +11143,15 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
@@ -11150,32 +11166,32 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y167" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -11188,8 +11204,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -11205,32 +11229,32 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y168" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11245,7 +11269,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11268,32 +11292,32 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y169" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11308,7 +11332,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11331,32 +11355,32 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y170" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11371,7 +11395,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11394,32 +11418,32 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y171" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>building=house</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11429,19 +11453,15 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -11457,32 +11477,32 @@
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y172" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -11497,16 +11517,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -11520,10 +11548,1062 @@
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr">
         <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y173" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y174" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Which land use contains meteorological stations in Netherlands</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="Y173" t="n">
+      <c r="Y185" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y188" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
         <v>13</v>
       </c>
     </row>
